--- a/src/test/resources/testdata/batch14excel.xlsx
+++ b/src/test/resources/testdata/batch14excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B597DB-63E0-4256-970C-4E44A7A465BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E4F499-0D7C-414C-B9C9-31BC2D3818BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{207AAE2E-FD4E-412B-BB65-8CDFC201A6C5}"/>
   </bookViews>
@@ -62,37 +62,37 @@
     <t>ms</t>
   </si>
   <si>
-    <t>anton</t>
-  </si>
-  <si>
-    <t>huli123</t>
-  </si>
-  <si>
     <t>Syntax123!</t>
   </si>
   <si>
-    <t>ivan</t>
-  </si>
-  <si>
-    <t>neel</t>
-  </si>
-  <si>
-    <t>ronaldo</t>
-  </si>
-  <si>
-    <t>neel123</t>
-  </si>
-  <si>
-    <t>messi</t>
-  </si>
-  <si>
-    <t>mbappe</t>
-  </si>
-  <si>
-    <t>messi123</t>
-  </si>
-  <si>
     <t>C:\Users\User\Desktop\newImage.jpg</t>
+  </si>
+  <si>
+    <t>lola</t>
+  </si>
+  <si>
+    <t>halo</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>dri</t>
+  </si>
+  <si>
+    <t>hie</t>
+  </si>
+  <si>
+    <t>timmy</t>
+  </si>
+  <si>
+    <t>lola123</t>
+  </si>
+  <si>
+    <t>halo123</t>
+  </si>
+  <si>
+    <t>hello123</t>
   </si>
 </sst>
 </file>
@@ -447,14 +447,14 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.54296875" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="32.90625" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" customWidth="1"/>
     <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" customWidth="1"/>
     <col min="7" max="7" width="14.90625" customWidth="1"/>
@@ -485,71 +485,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
